--- a/FeedManagement.xlsx
+++ b/FeedManagement.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\pjd\Dairy_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7476C76-E5C9-49BE-88E3-D04FD21E9E71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{339CC68A-C374-4B00-A448-1C52E1D2F02A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Cow Feed management" sheetId="1" r:id="rId1"/>
+    <sheet name="Cow Feed management-rose garden" sheetId="1" r:id="rId1"/>
+    <sheet name="Cow Feed management-kozhi panna" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="34">
   <si>
     <t>Ellu punnakku</t>
   </si>
@@ -86,9 +87,6 @@
     <t>Dry cows</t>
   </si>
   <si>
-    <t>Total kgs</t>
-  </si>
-  <si>
     <t>Stock</t>
   </si>
   <si>
@@ -129,6 +127,12 @@
   </si>
   <si>
     <t>Kgs/week</t>
+  </si>
+  <si>
+    <t>Total kgs/cow</t>
+  </si>
+  <si>
+    <t>Req Kgs/month</t>
   </si>
 </sst>
 </file>
@@ -207,15 +211,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -499,8 +503,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -514,18 +518,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="H1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="H1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -538,7 +542,7 @@
         <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -553,13 +557,13 @@
         <v>9</v>
       </c>
       <c r="J2" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="K2" t="s">
         <v>5</v>
       </c>
-      <c r="M2" s="5" t="s">
-        <v>26</v>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -592,8 +596,8 @@
         <v>6</v>
       </c>
       <c r="J3">
-        <f>SUM(I3:I9)</f>
-        <v>15.4</v>
+        <f>SUM(H3:H9)</f>
+        <v>1.6</v>
       </c>
       <c r="K3">
         <f>SUM(I3:I7)</f>
@@ -712,19 +716,19 @@
         <v>0</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="4"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
       <c r="K9" s="1" t="s">
         <v>12</v>
       </c>
@@ -743,16 +747,16 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
       <c r="J10">
         <v>3</v>
       </c>
@@ -784,11 +788,11 @@
         <f>SUM(C11:C17)</f>
         <v>32</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
       <c r="J11">
         <v>1</v>
       </c>
@@ -812,11 +816,11 @@
         <f>N4*B12</f>
         <v>14</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
       <c r="J12">
         <v>5</v>
       </c>
@@ -871,29 +875,29 @@
         <f>N7*B15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="45" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="H16" t="s">
-        <v>19</v>
-      </c>
-      <c r="K16" t="s">
+      <c r="N16" t="s">
         <v>28</v>
-      </c>
-      <c r="L16" t="s">
-        <v>25</v>
-      </c>
-      <c r="M16" t="s">
-        <v>32</v>
-      </c>
-      <c r="N16" t="s">
-        <v>29</v>
       </c>
       <c r="O16" t="s">
         <v>14</v>
@@ -901,7 +905,7 @@
     </row>
     <row r="17" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K17">
         <f>((B3*J10)+(B11*J11)+(H3*J12))*30</f>
@@ -917,7 +921,7 @@
       </c>
       <c r="N17">
         <f>(K17/50)*M15</f>
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="O17" s="2">
         <f>SUM(L17:L21)</f>
@@ -926,7 +930,7 @@
     </row>
     <row r="18" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K18">
         <f>((B4*J10)+(B12*J11)+(H4*J12))*30</f>
@@ -942,15 +946,15 @@
       </c>
       <c r="N18">
         <f>(K18/50)*$M$15</f>
-        <v>9.6</v>
+        <v>4.8</v>
       </c>
       <c r="O18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K19">
         <f>((B5*J10)+(B13*J11)+(H5*J12))*30</f>
@@ -966,16 +970,16 @@
       </c>
       <c r="N19">
         <f>(K19/50)*$M$15</f>
-        <v>3.6</v>
+        <v>1.8</v>
       </c>
       <c r="O19" s="2">
         <f>O17*M15</f>
-        <v>14640</v>
+        <v>7320</v>
       </c>
     </row>
     <row r="20" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K20">
         <f>(B6+B14+H6)*30</f>
@@ -987,12 +991,12 @@
       </c>
       <c r="N20">
         <f>(K20/50)*$M$15</f>
-        <v>1.0799999999999998</v>
+        <v>0.53999999999999992</v>
       </c>
     </row>
     <row r="21" spans="8:15" x14ac:dyDescent="0.25">
       <c r="H21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K21">
         <f>(B7+B15+H7)*30</f>
@@ -1004,7 +1008,7 @@
       </c>
       <c r="N21">
         <f>(K21/50)*$M$15</f>
-        <v>0.3600000000000001</v>
+        <v>0.18000000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -1020,4 +1024,379 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9D434D-2DC7-4877-A7AA-43D9D3867ED0}">
+  <dimension ref="A1:O21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.7109375" customWidth="1"/>
+    <col min="8" max="8" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9" customWidth="1"/>
+    <col min="13" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="H1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>0.5</v>
+      </c>
+      <c r="I3">
+        <f>N3*H3</f>
+        <v>6</v>
+      </c>
+      <c r="J3">
+        <f>SUM(H3:H9)</f>
+        <v>1.2659999999999998</v>
+      </c>
+      <c r="K3">
+        <f>SUM(I3:I7)</f>
+        <v>15.4</v>
+      </c>
+      <c r="M3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <f>N4*H4</f>
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0.2</v>
+      </c>
+      <c r="I5">
+        <f>N5*H5</f>
+        <v>2.4000000000000004</v>
+      </c>
+      <c r="M5" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I6">
+        <f>N6*H6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>7</v>
+      </c>
+      <c r="H7">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="I7">
+        <f>N7*H7</f>
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="K9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <f>E3*J10</f>
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <f>K10*30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f>E11*J11</f>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f>K11*30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="G12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12">
+        <v>5</v>
+      </c>
+      <c r="K12">
+        <f>K3*J12</f>
+        <v>77</v>
+      </c>
+      <c r="L12">
+        <f>K12*30</f>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="2">
+        <f>SUM(L10:L12)</f>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="K15" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="5"/>
+      <c r="M15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>24</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" t="s">
+        <v>28</v>
+      </c>
+      <c r="O16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17">
+        <f>((B3*J10)+(B11*J11)+(H3*J12))*30</f>
+        <v>75</v>
+      </c>
+      <c r="L17">
+        <f>K17*N3</f>
+        <v>900</v>
+      </c>
+      <c r="M17">
+        <f>((B3*J10)+(B11*J11)+(H3*J12))*7</f>
+        <v>17.5</v>
+      </c>
+      <c r="N17">
+        <f>(K17/50)*M15</f>
+        <v>3</v>
+      </c>
+      <c r="O17" s="2">
+        <f>SUM(L17:L21)</f>
+        <v>2310</v>
+      </c>
+    </row>
+    <row r="18" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H18" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18">
+        <f>((B4*J10)+(B12*J11)+(H4*J12))*30</f>
+        <v>75</v>
+      </c>
+      <c r="L18">
+        <f>K18*N4</f>
+        <v>1050</v>
+      </c>
+      <c r="M18">
+        <f>((B4*J10)+(B12*J11)+(H4*J12))*7</f>
+        <v>17.5</v>
+      </c>
+      <c r="N18">
+        <f>(K18/50)*$M$15</f>
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="19" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H19" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19">
+        <f>((B5*J10)+(B13*J11)+(H5*J12))*30</f>
+        <v>30</v>
+      </c>
+      <c r="L19">
+        <f>K19*N5</f>
+        <v>360</v>
+      </c>
+      <c r="M19">
+        <f>((B5*J10)+(B13*J11)+(H5*J12))*7</f>
+        <v>7</v>
+      </c>
+      <c r="N19">
+        <f>(K19/50)*$M$15</f>
+        <v>1.2</v>
+      </c>
+      <c r="O19" s="2">
+        <f>O17*M15</f>
+        <v>4620</v>
+      </c>
+    </row>
+    <row r="20" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20">
+        <f>(H6*J12)*30</f>
+        <v>4.95</v>
+      </c>
+      <c r="L20">
+        <f>K20*N6</f>
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <f>(K20/50)*$M$15</f>
+        <v>0.19800000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="8:15" x14ac:dyDescent="0.25">
+      <c r="H21" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21">
+        <f>(B7+B15+H7)*30</f>
+        <v>0.99</v>
+      </c>
+      <c r="L21">
+        <f>K21*N7</f>
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <f>(K21/50)*$M$15</f>
+        <v>3.9599999999999996E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="K15:L15"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="H1:K1"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>